--- a/excel_with_subclasses/without_zeros/forest_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/forest_with_count_without_zeros.xlsx
@@ -410,7 +410,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -430,9 +430,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>14707</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -450,9 +447,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1036</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -470,9 +464,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -490,9 +481,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>191</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -510,9 +498,6 @@
           <t>Q4421_лес,Q16966008_protected forest</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>184</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -530,9 +515,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>129</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -550,9 +532,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>98</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -570,9 +549,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>68</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -590,9 +566,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>41</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -610,9 +583,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -630,9 +600,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>28</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -650,9 +617,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>28</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -670,9 +634,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -690,9 +651,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -710,9 +668,6 @@
           <t>Q166735_лесное болото</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -730,9 +685,6 @@
           <t>Q3079197_temperate forest,Q16237489_Хвойный лес</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -750,9 +702,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -770,9 +719,6 @@
           <t>Q1940784_Варзеа</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -790,9 +736,6 @@
           <t>Q1510380_роща</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -810,9 +753,6 @@
           <t>Q7603683_state forest</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -830,9 +770,6 @@
           <t>Q811600_Священная роща,Q2006812_wish tree</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -850,9 +787,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -870,9 +804,6 @@
           <t>Q7603683_state forest</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -890,9 +821,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -910,9 +838,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -930,9 +855,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -950,9 +872,6 @@
           <t>Q93734705_moist forest</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -970,9 +889,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -990,9 +906,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1010,9 +923,6 @@
           <t>Q9444_дождевой лес,Q1048194_тропический лес</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1030,9 +940,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1050,9 +957,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1070,9 +974,6 @@
           <t>Q7603683_state forest</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1090,9 +991,6 @@
           <t>Q7603683_state forest</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1110,9 +1008,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1130,9 +1025,6 @@
           <t>Q7603683_state forest</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1150,9 +1042,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1170,9 +1059,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1190,9 +1076,6 @@
           <t>Q16966008_protected forest</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1210,9 +1093,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1230,9 +1110,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1250,9 +1127,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1270,9 +1144,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1290,9 +1161,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1310,9 +1178,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1330,9 +1195,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1350,9 +1212,6 @@
           <t>Q9444_дождевой лес</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1370,9 +1229,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1390,9 +1246,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1410,9 +1263,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1430,9 +1280,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1450,9 +1297,6 @@
           <t>Q9444_дождевой лес,Q3079197_temperate forest</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1470,9 +1314,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1490,9 +1331,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1510,9 +1348,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1530,9 +1365,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1550,9 +1382,6 @@
           <t>Q4421_лес</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1569,9 +1398,6 @@
         <is>
           <t>Q910817_карр</t>
         </is>
-      </c>
-      <c r="D59" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1611,7 +1437,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -1631,9 +1457,7 @@
           <t>Q17057172_Лесной массив</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
